--- a/Main/static/CSVs/Spell List.xlsx
+++ b/Main/static/CSVs/Spell List.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AD933F-8EFD-4CE2-AC79-EAEA1EC1EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9AA99-BE37-439C-AD1F-1DC198CB998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E9445F3-B443-4A9F-82FC-549874AD4368}"/>
   </bookViews>
   <sheets>
     <sheet name="Spells" sheetId="1" r:id="rId1"/>
-    <sheet name="Lists" sheetId="2" r:id="rId2"/>
-    <sheet name="Spells_no_header" sheetId="3" r:id="rId3"/>
+    <sheet name="SPELL CHANGES" sheetId="4" r:id="rId2"/>
+    <sheet name="Lists" sheetId="2" r:id="rId3"/>
+    <sheet name="Spells_no_header" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="434">
   <si>
     <t>Acid Splash</t>
   </si>
@@ -1326,6 +1327,9 @@
   </si>
   <si>
     <t>Until triggered</t>
+  </si>
+  <si>
+    <t>Hunter's Mark is now a Cantrip and does not require concentration. Rangers also learn Druidcraft.</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D16AED1-C2D5-4E4E-BB14-95BEFB4B6974}">
   <dimension ref="A1:T320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L164" sqref="L164"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7712,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -11948,7 +11954,7 @@
         <v>178</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="s">
         <v>47</v>
@@ -11975,7 +11981,7 @@
         <v>405</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -21683,6 +21689,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3DEF3B-B5D8-4F41-8F51-A446718EE0A6}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E9715C-0B9B-43B7-9CF2-094EE36F83D3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -21970,7 +21996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20437B86-1D70-45B5-9840-1C592BC4A7B2}">
   <dimension ref="A1:N318"/>
   <sheetViews>

--- a/Main/static/CSVs/Spell List.xlsx
+++ b/Main/static/CSVs/Spell List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9AA99-BE37-439C-AD1F-1DC198CB998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A68BD8-68DF-4145-B186-55365415EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E9445F3-B443-4A9F-82FC-549874AD4368}"/>
   </bookViews>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:T320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Main/static/CSVs/Spell List.xlsx
+++ b/Main/static/CSVs/Spell List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A68BD8-68DF-4145-B186-55365415EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4752304-744C-436E-BDD5-647EBA1F0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E9445F3-B443-4A9F-82FC-549874AD4368}"/>
   </bookViews>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:T320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Main/static/CSVs/Spell List.xlsx
+++ b/Main/static/CSVs/Spell List.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\CS50-FinalProject\Main\static\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4752304-744C-436E-BDD5-647EBA1F0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8248E70-5049-4676-B419-282ACDB82A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E9445F3-B443-4A9F-82FC-549874AD4368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{4E9445F3-B443-4A9F-82FC-549874AD4368}"/>
   </bookViews>
   <sheets>
     <sheet name="Spells" sheetId="1" r:id="rId1"/>
     <sheet name="SPELL CHANGES" sheetId="4" r:id="rId2"/>
     <sheet name="Lists" sheetId="2" r:id="rId3"/>
     <sheet name="Spells_no_header" sheetId="3" r:id="rId4"/>
+    <sheet name="cantrips_and_level_1_spells" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="434">
   <si>
     <t>Acid Splash</t>
   </si>
@@ -1485,7 +1486,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FB010E9-1ADF-43CD-9C4C-751DF8D41E86}" name="Table2" displayName="Table2" ref="A1:T320" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:T320" xr:uid="{6FB010E9-1ADF-43CD-9C4C-751DF8D41E86}"/>
+  <autoFilter ref="A1:T320" xr:uid="{6FB010E9-1ADF-43CD-9C4C-751DF8D41E86}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T320">
     <sortCondition ref="A1:A320"/>
   </sortState>
@@ -1814,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D16AED1-C2D5-4E4E-BB14-95BEFB4B6974}">
   <dimension ref="A1:T320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection sqref="A1:T305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,7 +1910,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2026,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2150,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2646,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2708,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2894,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3080,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3142,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3266,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3328,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3576,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3700,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4134,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5002,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5064,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5188,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5250,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5436,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5560,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5684,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5932,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6056,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6118,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6304,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6366,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6428,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6490,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6552,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6614,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6862,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6924,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7110,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7172,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7234,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7358,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7420,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7482,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7606,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7730,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7854,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7916,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8040,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8102,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8226,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8288,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8412,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8536,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8660,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8784,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8846,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8908,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8970,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -9032,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -9156,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -9218,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -9280,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -9342,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -9404,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -9466,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -9590,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -9714,7 +9722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -9776,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -9838,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -9900,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -10024,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -10086,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -10148,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -10210,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -10272,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -10334,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -10396,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -10458,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -10644,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -10706,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -10768,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -10830,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -11016,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -11078,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -11140,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -11202,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -11264,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -11326,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -11450,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -11574,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -11760,7 +11768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -11822,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -11884,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -12008,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -12070,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -12256,7 +12264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -12318,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -12442,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -12504,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -12566,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -12628,7 +12636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -12752,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -12814,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -12876,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -12938,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -13062,7 +13070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -13124,7 +13132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -13186,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -13248,7 +13256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -13496,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -13558,7 +13566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -13682,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -13744,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -13806,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -13868,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -13930,7 +13938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -13992,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -14054,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -14116,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -14178,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -14240,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -14426,7 +14434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -14488,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -14612,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -14674,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -14736,7 +14744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -14798,7 +14806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -14860,7 +14868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -14922,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -14984,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -15046,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -15108,7 +15116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -15170,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -15232,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -15294,7 +15302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -15356,7 +15364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -15418,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -15480,7 +15488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -15542,7 +15550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -15666,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -15728,7 +15736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -15790,7 +15798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -15852,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -15976,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -16038,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -16100,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -16224,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -16286,7 +16294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -16348,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -16472,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -16596,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -16658,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -16782,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -16844,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -16906,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -16968,7 +16976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -17092,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -17154,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -17216,7 +17224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -17278,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -17464,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -17526,7 +17534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -17588,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -17650,7 +17658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -17712,7 +17720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -17774,7 +17782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -17836,7 +17844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -17898,7 +17906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -17960,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -18270,7 +18278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -18394,7 +18402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -18518,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -18580,7 +18588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -18766,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -18828,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -18890,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -18952,7 +18960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -19014,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -19076,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -19138,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -19200,7 +19208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -19262,7 +19270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -19324,7 +19332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -19386,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -19448,7 +19456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -19510,7 +19518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -19572,7 +19580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -19634,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -19696,7 +19704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -19758,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -19820,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -20006,7 +20014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -20068,7 +20076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -20130,7 +20138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -20192,7 +20200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -20254,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -20316,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -20378,7 +20386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -20440,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -20626,7 +20634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -20750,7 +20758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -20812,7 +20820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -20874,7 +20882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -20936,7 +20944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -20998,7 +21006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -21060,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -21122,7 +21130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -21184,7 +21192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -21246,7 +21254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -21308,7 +21316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -21370,7 +21378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -21432,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -21494,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -21556,7 +21564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -21618,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -36014,4 +36022,4605 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0072EED-74DD-4B55-8164-CDBEEA8B8FAE}">
+  <dimension ref="A1:T74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>401</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>405</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>428</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>428</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>405</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>391</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>391</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>404</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>427</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>399</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>427</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>399</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>427</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>399</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>399</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>404</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>391</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>404</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>399</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>427</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>392</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>399</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>404</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>396</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>391</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>393</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>405</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>405</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>391</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>392</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>404</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>404</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>396</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>428</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>392</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>391</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>392</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>391</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>400</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>404</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>404</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>405</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>400</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>391</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>400</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s">
+        <v>400</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>400</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>404</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>400</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>184</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>400</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>400</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>394</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>393</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>400</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>396</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>428</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>393</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>221</v>
+      </c>
+      <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>226</v>
+      </c>
+      <c r="B54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s">
+        <v>403</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s">
+        <v>399</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>427</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>427</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>236</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>239</v>
+      </c>
+      <c r="B58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s">
+        <v>392</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>244</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s">
+        <v>400</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>404</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>249</v>
+      </c>
+      <c r="B60" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s">
+        <v>392</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>391</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s">
+        <v>393</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>404</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>399</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>428</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s">
+        <v>392</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>427</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>400</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>404</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" t="s">
+        <v>400</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>391</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" t="s">
+        <v>392</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>427</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>267</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s">
+        <v>390</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>270</v>
+      </c>
+      <c r="B68" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s">
+        <v>400</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>391</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>271</v>
+      </c>
+      <c r="B69" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>399</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>427</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>290</v>
+      </c>
+      <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s">
+        <v>393</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>404</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" t="s">
+        <v>423</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>391</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>300</v>
+      </c>
+      <c r="B72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>393</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>428</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>301</v>
+      </c>
+      <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" t="s">
+        <v>392</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>405</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" t="s">
+        <v>392</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>391</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>